--- a/doc/袁帅.xlsx
+++ b/doc/袁帅.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Git\repository\logs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10D02FD-F813-40BB-A241-BABB483BC7B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8A491F1A-B233-4D29-A836-DD34460E3916}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7DF36359-20B2-4E6D-8083-570ABC46D0C9}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="20760" windowHeight="11820" xr2:uid="{7DF36359-20B2-4E6D-8083-570ABC46D0C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>姓名：袁帅</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +80,30 @@
   </si>
   <si>
     <t>利用hibernate在本地库和远程库建立了实体类的表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/05/19/15:00-2019/05/19/17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/05/20/19:00-2019/05/20/21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试eclipse-git协同开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉取远程库代码，并将本地的dao层实体类提交到github上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/05/25/17:00-2019/05/25/19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用hibernate+JPA自动建表成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1C20B0-9896-4EE0-9E4E-C201440358D0}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,6 +546,30 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
